--- a/biology/Histoire de la zoologie et de la botanique/Graman_Quassi/Graman_Quassi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Graman_Quassi/Graman_Quassi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kwasimukamba ou Graman Quassi (aussi dénommé Quacy, Kwasi ou Quasi ; 1692 - 12 mars 1787 à Paramaribo) est un médecin, botaniste, esclave puis affranchi du Suriname au XVIIIe siècle. Linné a donné son nom au genre botanique Quassia.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'origine africaine, Graman Quassi fut vendu comme esclave dans la colonie hollandaise du Suriname. Il participa alors aux guerres contre les marrons Saramaka comme éclaireur et négociateur pour le compte des Hollandais; il perdit son oreille droite durant ces conflits. Les esclaves marrons du Suriname l'ont considéré comme un traitre doué de talents de sorcellerie, lui donnant le nom de Kwasimukamba[1].
-Graman Quassi fut un guérisseur assez renommé dans la colonie hollandaise, ce qui lui valut la reconnaissance des autorités surinamaises. Il obtint son affranchissement et put voyager aux Pays-Bas, où il reçut d'autres gratifications. Il inventa un remède basé sur la plante Quassia amara, dont il découvrit les propriétés médicales. Carl Linnaeus attribua son nom à la plante Quassia (prononcé Couachi en Guyane)[2], qui continue à être utilisée aujourd'hui, notamment dans les remèdes du Suriname. Un contemporain décrit Graman Quassi comme « un des hommes noirs les plus extraordinaires du Suriname, et peut-être du monde[3] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine africaine, Graman Quassi fut vendu comme esclave dans la colonie hollandaise du Suriname. Il participa alors aux guerres contre les marrons Saramaka comme éclaireur et négociateur pour le compte des Hollandais; il perdit son oreille droite durant ces conflits. Les esclaves marrons du Suriname l'ont considéré comme un traitre doué de talents de sorcellerie, lui donnant le nom de Kwasimukamba.
+Graman Quassi fut un guérisseur assez renommé dans la colonie hollandaise, ce qui lui valut la reconnaissance des autorités surinamaises. Il obtint son affranchissement et put voyager aux Pays-Bas, où il reçut d'autres gratifications. Il inventa un remède basé sur la plante Quassia amara, dont il découvrit les propriétés médicales. Carl Linnaeus attribua son nom à la plante Quassia (prononcé Couachi en Guyane), qui continue à être utilisée aujourd'hui, notamment dans les remèdes du Suriname. Un contemporain décrit Graman Quassi comme « un des hommes noirs les plus extraordinaires du Suriname, et peut-être du monde ».
 </t>
         </is>
       </c>
